--- a/CS250 Test Cases.xlsx
+++ b/CS250 Test Cases.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchen\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C06DCD-05D0-449E-86F1-0827DF5E7A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Project Name</t>
   </si>
@@ -178,22 +187,95 @@
   <si>
     <t>TS_MTS_010</t>
   </si>
+  <si>
+    <t>Test Seat Selection Functionality</t>
+  </si>
+  <si>
+    <t>TC_MTS_SeatSel_001</t>
+  </si>
+  <si>
+    <t>Verify that users can select available seats and confirm seat reservation.</t>
+  </si>
+  <si>
+    <t>1. Browse available movies.
+2. Select a movie and proceed to the seat selection screen.
+3. Select available seats.
+4. Confirm seat reservation by clicking the "Reserve Seats" button.</t>
+  </si>
+  <si>
+    <t>User is logged in.
+The selected movie has available seats.</t>
+  </si>
+  <si>
+    <t>Selected seats are reserved for the user and no longer available for others.</t>
+  </si>
+  <si>
+    <t>The system displays a confirmation message indicating successful seat reservation. The selected seats are marked as "Reserved."</t>
+  </si>
+  <si>
+    <t>Test Browse Movies Functionality</t>
+  </si>
+  <si>
+    <t>TC_MTS_BrowseMovies_001</t>
+  </si>
+  <si>
+    <t>Verify that users can filter movies based on preferences and display results accordingly.</t>
+  </si>
+  <si>
+    <t>1. Open the "Browse Movies" page.
+2. Apply filters for genre (e.g., "Action"), language (e.g., "English"), and showtimes (e.g., "Evening").
+3. Click the "Apply Filters" button to display the filtered movies.</t>
+  </si>
+  <si>
+    <t>The movie database is populated with movies of various genres, languages, and showtimes.</t>
+  </si>
+  <si>
+    <t>The filtered list of movies is displayed to the user based on the applied preferences.</t>
+  </si>
+  <si>
+    <t>The system displays a list of movies matching the selected filters.</t>
+  </si>
+  <si>
+    <t>Test Food and Drink Add-on Functionality</t>
+  </si>
+  <si>
+    <t>TC_MTS_AddOns_001</t>
+  </si>
+  <si>
+    <t>Verify that users can add and modify food and drink items during checkout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Proceed to checkout after selecting movie and seats.
+2. On the add-ons screen, select food and drink options.
+3. Modify the quantity of the selected add-ons.
+4. Proceed to payment after confirming add-ons. </t>
+  </si>
+  <si>
+    <t>User has selected a movie and seats.</t>
+  </si>
+  <si>
+    <t>Food and drink items are added to the user's order summary and ready for checkout.</t>
+  </si>
+  <si>
+    <t>The system updates the order summary to reflect the added and modified add-ons.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d-yyyy"/>
+    <numFmt numFmtId="164" formatCode="m\-d\-yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -204,7 +286,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -214,7 +296,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF10BF00"/>
@@ -228,6 +316,7 @@
       <bottom style="thin">
         <color rgb="FF10BF00"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -242,6 +331,7 @@
       <bottom style="thin">
         <color rgb="FF10BF00"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -256,6 +346,7 @@
       <bottom style="thin">
         <color rgb="FF10BF00"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -270,6 +361,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -284,125 +376,108 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF15FF00"/>
           <bgColor rgb="FF15FF00"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A6:M16" displayName="Table1" name="Table1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A6:M16">
   <tableColumns count="13">
-    <tableColumn name="Test Scenario ID" id="1"/>
-    <tableColumn name="Test Scenario Description" id="2"/>
-    <tableColumn name="Test Case ID" id="3"/>
-    <tableColumn name="Test Case Description" id="4"/>
-    <tableColumn name="Test Steps" id="5"/>
-    <tableColumn name="Preconditions" id="6"/>
-    <tableColumn name="Post Conditions" id="7"/>
-    <tableColumn name="Expected Result" id="8"/>
-    <tableColumn name="Acual Result" id="9"/>
-    <tableColumn name="Status" id="10"/>
-    <tableColumn name="Executed By" id="11"/>
-    <tableColumn name="Executed Date" id="12"/>
-    <tableColumn name="Comments (If any)" id="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Scenario ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Scenario Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Test Case ID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Test Case Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Test Steps"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Preconditions"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Post Conditions"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Expected Result"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Acual Result"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Status"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Executed By"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Executed Date"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Comments (If any)"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -592,34 +667,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.5"/>
-    <col customWidth="1" min="2" max="2" width="27.5"/>
-    <col customWidth="1" min="3" max="3" width="20.63"/>
-    <col customWidth="1" min="4" max="4" width="21.88"/>
-    <col customWidth="1" min="5" max="5" width="13.38"/>
-    <col customWidth="1" min="6" max="6" width="15.75"/>
-    <col customWidth="1" min="7" max="7" width="17.25"/>
-    <col customWidth="1" min="8" max="8" width="17.38"/>
-    <col customWidth="1" min="9" max="9" width="14.75"/>
-    <col customWidth="1" min="11" max="11" width="14.5"/>
-    <col customWidth="1" min="12" max="12" width="16.13"/>
-    <col customWidth="1" min="13" max="13" width="19.25"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -635,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -643,15 +723,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>45586.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -692,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -721,13 +801,13 @@
       <c r="J7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -752,17 +832,17 @@
       <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -787,167 +867,209 @@
       <c r="H9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>